--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c206_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c206_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4096" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -823,10 +835,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -870,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -916,28 +928,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1170,10 +1182,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1217,28 +1229,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1263,28 +1275,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1430,10 +1442,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1477,28 +1489,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1523,28 +1535,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1632,10 +1644,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1679,28 +1691,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1725,28 +1737,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1834,10 +1846,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1881,28 +1893,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1927,28 +1939,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2007,10 +2019,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2054,28 +2066,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2100,28 +2112,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2209,10 +2221,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2256,28 +2268,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2302,28 +2314,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2382,10 +2394,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2429,28 +2441,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2475,28 +2487,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2555,10 +2567,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2602,28 +2614,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2648,28 +2660,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2728,10 +2740,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2775,28 +2787,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2821,28 +2833,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3104,10 +3116,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3151,28 +3163,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3197,28 +3209,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3364,10 +3376,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3411,28 +3423,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3457,28 +3469,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3595,10 +3607,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3642,28 +3654,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3688,28 +3700,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3768,10 +3780,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="2" t="s">
+      <c r="J126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3815,28 +3827,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="2">
+      <c r="C128" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3861,28 +3873,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3941,10 +3953,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3988,28 +4000,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4034,28 +4046,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4114,10 +4126,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4161,28 +4173,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4207,28 +4219,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4287,10 +4299,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4334,28 +4346,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4380,28 +4392,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4518,10 +4530,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4565,28 +4577,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4611,28 +4623,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4691,10 +4703,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4738,28 +4750,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4784,28 +4796,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4864,10 +4876,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4911,28 +4923,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4957,28 +4969,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5037,10 +5049,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5084,28 +5096,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5130,28 +5142,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5210,10 +5222,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5257,28 +5269,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5303,28 +5315,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5383,10 +5395,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5430,28 +5442,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5476,28 +5488,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5585,10 +5597,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5632,28 +5644,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5678,28 +5690,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5816,10 +5828,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5863,28 +5875,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5909,28 +5921,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6018,10 +6030,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6065,28 +6077,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6111,28 +6123,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6191,10 +6203,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6238,28 +6250,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6284,28 +6296,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6364,10 +6376,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6411,28 +6423,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6457,28 +6469,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6537,10 +6549,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6584,28 +6596,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6630,28 +6642,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6739,10 +6751,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6786,28 +6798,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6832,28 +6844,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6941,10 +6953,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6988,28 +7000,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7034,28 +7046,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7114,10 +7126,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7161,28 +7173,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7207,28 +7219,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7287,10 +7299,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="2" t="s">
+      <c r="J248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7334,28 +7346,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="2">
+      <c r="A250" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="2">
+      <c r="C250" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7380,28 +7392,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="2">
+      <c r="C252" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="2">
+      <c r="D252" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="2">
+      <c r="I252" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7692,10 +7704,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="2" t="s">
+      <c r="J262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7739,28 +7751,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="2">
+      <c r="A264" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="2">
+      <c r="C264" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7785,28 +7797,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="2">
+      <c r="C266" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="2">
+      <c r="D266" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="2">
+      <c r="I266" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7865,10 +7877,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="2" t="s">
+      <c r="J268" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7912,28 +7924,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="2">
+      <c r="A270" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="2">
+      <c r="C270" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7958,28 +7970,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="2">
+      <c r="C272" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="2">
+      <c r="D272" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="2">
+      <c r="I272" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8038,10 +8050,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8085,28 +8097,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8131,28 +8143,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8269,10 +8281,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8316,28 +8328,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
+      <c r="A284" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="2">
+      <c r="C284" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8362,28 +8374,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="2">
+      <c r="C286" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="2">
+      <c r="D286" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="2">
+      <c r="I286" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8442,10 +8454,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8489,28 +8501,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8535,28 +8547,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8789,10 +8801,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="2" t="s">
+      <c r="J300" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8836,28 +8848,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="2">
+      <c r="A302" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="2">
+      <c r="C302" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8882,28 +8894,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="2">
+      <c r="C304" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="2">
+      <c r="D304" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="2">
+      <c r="I304" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8962,10 +8974,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="2" t="s">
+      <c r="J306" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
@@ -9009,28 +9021,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="s" s="2">
+      <c r="A308" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C308" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D308" t="s" s="2">
+      <c r="C308" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9055,28 +9067,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C310" t="s" s="2">
+      <c r="C310" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D310" t="s" s="2">
+      <c r="D310" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I310" t="s" s="2">
+      <c r="I310" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9222,10 +9234,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="2" t="s">
+      <c r="J315" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9269,28 +9281,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="2">
+      <c r="A317" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="2">
+      <c r="B317" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="2">
+      <c r="C317" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="2">
+      <c r="E317" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="2">
+      <c r="F317" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="2">
+      <c r="G317" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="2">
+      <c r="H317" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9315,28 +9327,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="2">
+      <c r="C319" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="2">
+      <c r="D319" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="2">
+      <c r="I319" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9395,10 +9407,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="2" t="s">
+      <c r="J321" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
